--- a/Demo/Data/2_loc_auto_key/Output/Rule/R_TestComposeKey.xlsx
+++ b/Demo/Data/2_loc_auto_key/Output/Rule/R_TestComposeKey.xlsx
@@ -103,7 +103,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="b462cdf6-8e19-486c-847d-0820aa5c03e8" xfId="1"/>
+    <cellStyle name="5575ebbd-df74-4671-bba8-94a0b5d3bde2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>

--- a/Demo/Data/2_loc_auto_key/Output/Rule/R_TestComposeKey.xlsx
+++ b/Demo/Data/2_loc_auto_key/Output/Rule/R_TestComposeKey.xlsx
@@ -103,7 +103,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="5575ebbd-df74-4671-bba8-94a0b5d3bde2" xfId="1"/>
+    <cellStyle name="7657a28b-735c-401f-81a8-6492e3fcb78a" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
